--- a/assets/food_calorie_db.xlsx
+++ b/assets/food_calorie_db.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_Projects\calorie_calculator\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501C349A-686D-481C-83B0-2274B2F6C750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875EDD57-1C98-4C7F-8D6A-B46E1FBFDE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27D62869-45B6-42C1-AB17-0B327B90A846}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">db!$A$1:$F$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>food</t>
   </si>
@@ -123,6 +126,45 @@
   </si>
   <si>
     <t>Ghee</t>
+  </si>
+  <si>
+    <t>Paneer</t>
+  </si>
+  <si>
+    <t>Chicken Breasts</t>
+  </si>
+  <si>
+    <t>Chicken Drumsticks</t>
+  </si>
+  <si>
+    <t>Chicken Thighs</t>
+  </si>
+  <si>
+    <t>Chicken Wings</t>
+  </si>
+  <si>
+    <t>Chivda</t>
+  </si>
+  <si>
+    <t>Curd</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Yardlong Bean</t>
+  </si>
+  <si>
+    <t>Pork</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Rumali Roti</t>
+  </si>
+  <si>
+    <t>Phulka</t>
   </si>
 </sst>
 </file>
@@ -494,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6703DF-DF75-4A98-BF5F-20649B31C022}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -606,19 +648,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="D6">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -626,19 +668,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>352</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="E7">
-        <v>64</v>
+        <v>3.9</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -646,19 +688,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -666,19 +708,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="C9">
-        <v>0.9</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>4.5999999999999996</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -686,19 +728,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>1.8</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
         <v>7</v>
-      </c>
-      <c r="B10">
-        <v>17.45</v>
-      </c>
-      <c r="C10">
-        <v>1.2</v>
-      </c>
-      <c r="D10">
-        <v>0.15</v>
-      </c>
-      <c r="E10">
-        <v>4.2</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -706,19 +748,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -726,19 +768,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>17.45</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -746,19 +788,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>446</v>
+        <v>33</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>19.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -766,19 +808,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>900</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -786,39 +828,39 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="C15">
-        <v>6.5</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E15">
-        <v>1.1000000000000001</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>52.5</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -826,19 +868,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>1.25</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -846,19 +888,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>15.4</v>
+        <v>900</v>
       </c>
       <c r="C18">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -866,19 +908,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B19">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="C19">
-        <v>2.7</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>0.4</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -886,39 +928,39 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>6.5</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>81</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>239</v>
+      </c>
+      <c r="C21">
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>383</v>
-      </c>
-      <c r="C21">
-        <v>79</v>
-      </c>
       <c r="D21">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -926,25 +968,286 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>165</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>3.6</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>203</v>
+      </c>
+      <c r="C23">
+        <v>30.5</v>
+      </c>
+      <c r="D23">
+        <v>8.1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>179</v>
+      </c>
+      <c r="C24">
+        <v>24.8</v>
+      </c>
+      <c r="D24">
+        <v>9.5</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>155</v>
+      </c>
+      <c r="C25">
+        <v>24.2</v>
+      </c>
+      <c r="D25">
+        <v>5.7</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>294</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>242</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>15.4</v>
+      </c>
+      <c r="C28">
+        <v>0.7</v>
+      </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
+      <c r="E28">
+        <v>2.16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>130</v>
+      </c>
+      <c r="C29">
+        <v>2.7</v>
+      </c>
+      <c r="D29">
+        <v>0.4</v>
+      </c>
+      <c r="E29">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>350</v>
+      </c>
+      <c r="C30">
+        <v>6.5</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>522</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>11.75</v>
+      </c>
+      <c r="D32">
+        <v>4.2</v>
+      </c>
+      <c r="E32">
+        <v>3.45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>383</v>
+      </c>
+      <c r="C33">
+        <v>79</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B22">
+      <c r="B34">
         <v>897</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>99.7</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>722</v>
+      </c>
+      <c r="C35">
+        <v>0.5</v>
+      </c>
+      <c r="D35">
+        <v>80</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F34" xr:uid="{8F6703DF-DF75-4A98-BF5F-20649B31C022}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
